--- a/Audit.xlsx
+++ b/Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dileu\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA492DE4-9F23-456B-A8C7-71D510A936FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD0DF0DA-5DB3-4E98-A613-6DADAA818D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>Catégorie</t>
   </si>
@@ -286,6 +286,69 @@
   </si>
   <si>
     <t>https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=lr</t>
+  </si>
+  <si>
+    <t>Indentation</t>
+  </si>
+  <si>
+    <t>Mauvaise experience utilisateur</t>
+  </si>
+  <si>
+    <t>Avoir un code structuré</t>
+  </si>
+  <si>
+    <t>Restructuré le code</t>
+  </si>
+  <si>
+    <t>Balise meta name="keywords"</t>
+  </si>
+  <si>
+    <t>Aucune utilité pour le référencement</t>
+  </si>
+  <si>
+    <t>Ne pas écrire cette balise</t>
+  </si>
+  <si>
+    <t>Supprimer cette balise</t>
+  </si>
+  <si>
+    <t>Balise title</t>
+  </si>
+  <si>
+    <t>Contenu incorrect</t>
+  </si>
+  <si>
+    <t>Performence</t>
+  </si>
+  <si>
+    <t>Mot clé descriptif et cohérent du site</t>
+  </si>
+  <si>
+    <t>Utiliser la balise afin de nomifier la page</t>
+  </si>
+  <si>
+    <t>Nombre de requêtes</t>
+  </si>
+  <si>
+    <t>Nombre important de requête qui ralentit le chargement de la page</t>
+  </si>
+  <si>
+    <t>Diminuer le nombre de requêtes</t>
+  </si>
+  <si>
+    <t>Supprimer ou retarder les requêtes inutiles</t>
+  </si>
+  <si>
+    <t>article webrankinfo</t>
+  </si>
+  <si>
+    <t>https://www.webrankinfo.com/dossiers/debutants/meta-keywords</t>
+  </si>
+  <si>
+    <t>https://jaetheme.com/blog/w3c-referencement/</t>
+  </si>
+  <si>
+    <t>referencement-vitesse-de-chargement-requetes</t>
   </si>
 </sst>
 </file>
@@ -343,7 +406,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +440,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,6 +519,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,17 +757,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="49.77734375" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
     <col min="6" max="6" width="131.77734375" customWidth="1"/>
@@ -728,19 +818,19 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -748,19 +838,19 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -785,103 +875,103 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
+      <c r="A5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>75</v>
+      <c r="B7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>76</v>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>77</v>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -889,59 +979,59 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
+        <v>99</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>79</v>
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>80</v>
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -949,97 +1039,173 @@
         <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>82</v>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>83</v>
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F17" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2008,25 +2174,32 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" location="impact-seo" xr:uid="{24D3BFF9-1126-401D-80E2-D1484AD67F1B}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{723937D1-CA30-4B74-B262-7FC61B0A0C9E}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{0EE8D966-6EB3-45C1-BFBC-B2664E0A373D}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{34412DE6-FB6B-4274-A57E-82F4699F5DB5}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{71F8DEAA-1CBF-4297-8337-2BBE9C09914F}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{B6AC2BBA-AAD7-43D1-ADCF-723DE078603C}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{AF47171F-67A7-4546-83F6-5D7C5663AE57}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{A29621B2-4632-4E36-8E69-40C091D950E9}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{F0EBAA15-04D0-485C-906F-CED2B47E527D}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{527A58A2-0757-4951-873A-A749DD9C3B2F}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{813C5B33-F26A-41AA-8D48-E05FD8467FE2}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{39BCD09F-A6E4-49BA-B49B-0F37F030DA6A}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{6602E8E4-C146-4AF4-AE91-70937E9A62DA}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{FA2B90D9-2B32-4FD0-A5A9-25DC0CC5EC70}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{03305040-1340-433F-9D4D-3DB292612D32}"/>
+    <hyperlink ref="F20" r:id="rId4" xr:uid="{34412DE6-FB6B-4274-A57E-82F4699F5DB5}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{71F8DEAA-1CBF-4297-8337-2BBE9C09914F}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{B6AC2BBA-AAD7-43D1-ADCF-723DE078603C}"/>
+    <hyperlink ref="F19" r:id="rId7" xr:uid="{AF47171F-67A7-4546-83F6-5D7C5663AE57}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{A29621B2-4632-4E36-8E69-40C091D950E9}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{F0EBAA15-04D0-485C-906F-CED2B47E527D}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{527A58A2-0757-4951-873A-A749DD9C3B2F}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{813C5B33-F26A-41AA-8D48-E05FD8467FE2}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{39BCD09F-A6E4-49BA-B49B-0F37F030DA6A}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{6602E8E4-C146-4AF4-AE91-70937E9A62DA}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{FA2B90D9-2B32-4FD0-A5A9-25DC0CC5EC70}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{03305040-1340-433F-9D4D-3DB292612D32}"/>
+    <hyperlink ref="F6" r:id="rId16" xr:uid="{57463813-1DDC-4FC2-B417-22F14E2BABAA}"/>
+    <hyperlink ref="F8" r:id="rId17" xr:uid="{549C5C44-4E06-4BE7-B9DA-A9116DA4A487}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId16"/>
+  <pageSetup orientation="landscape" r:id="rId18"/>
 </worksheet>
 </file>